--- a/Data_clean/MCAS/Estados_US/Edos_USA_2015/TEXAS_2015.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2015/TEXAS_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2124"/>
+  <dimension ref="A1:D2118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,20 +465,20 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
         <v>222</v>
       </c>
       <c r="D8">
-        <v>0.0009940357852882703</v>
+        <v>0.0009940357852882705</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C43">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C46">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C48">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C56">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C62">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C86">
@@ -1512,7 +1512,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C87">
@@ -1551,7 +1551,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Montecristo de Guerrero</t>
+          <t>Montecristo De Guerrero</t>
         </is>
       </c>
       <c r="C90">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C93">
@@ -1720,7 +1720,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C103">
@@ -1733,7 +1733,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C104">
@@ -2213,7 +2213,7 @@
         <v>22</v>
       </c>
       <c r="D140">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="141">
@@ -2336,7 +2336,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C150">
@@ -2479,7 +2479,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C161">
@@ -2518,7 +2518,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C164">
@@ -2856,7 +2856,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C190">
@@ -2869,7 +2869,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C191">
@@ -2882,7 +2882,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C192">
@@ -2986,7 +2986,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C200">
@@ -3050,7 +3050,7 @@
         <v>223</v>
       </c>
       <c r="D204">
-        <v>0.0009985134239607401</v>
+        <v>0.0009985134239607399</v>
       </c>
     </row>
     <row r="205">
@@ -3420,7 +3420,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C233">
@@ -3646,7 +3646,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C250">
@@ -3672,7 +3672,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3729,7 +3729,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C256">
@@ -3840,7 +3840,7 @@
         <v>207</v>
       </c>
       <c r="D264">
-        <v>0.0009268712052012251</v>
+        <v>0.0009268712052012252</v>
       </c>
     </row>
     <row r="265">
@@ -3929,7 +3929,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C271">
@@ -4040,7 +4040,7 @@
         <v>22</v>
       </c>
       <c r="D279">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="280">
@@ -4111,7 +4111,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C285">
@@ -4163,7 +4163,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C289">
@@ -4254,7 +4254,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C296">
@@ -4267,7 +4267,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C297">
@@ -4280,7 +4280,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C298">
@@ -4293,14 +4293,14 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C299">
         <v>22</v>
       </c>
       <c r="D299">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="300">
@@ -4423,13 +4423,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estado de México_x000D_
-</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C309">
@@ -4468,7 +4467,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C312">
@@ -4481,7 +4480,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C313">
@@ -4494,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C314">
@@ -4585,7 +4584,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C321">
@@ -4689,7 +4688,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C329">
@@ -4754,7 +4753,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C334">
@@ -4845,7 +4844,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C341">
@@ -4936,7 +4935,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C348">
@@ -4949,7 +4948,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C349">
@@ -5144,7 +5143,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5300,7 +5299,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C376">
@@ -5313,7 +5312,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C377">
@@ -5326,7 +5325,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C378">
@@ -5352,7 +5351,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C380">
@@ -5378,7 +5377,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C382">
@@ -5508,7 +5507,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C392">
@@ -5664,7 +5663,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C404">
@@ -5742,7 +5741,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C410">
@@ -5755,7 +5754,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C411">
@@ -5768,7 +5767,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C412">
@@ -5781,7 +5780,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C413">
@@ -5879,7 +5878,7 @@
         <v>22</v>
       </c>
       <c r="D420">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="421">
@@ -5955,7 +5954,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C426">
@@ -5968,7 +5967,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C427">
@@ -5981,7 +5980,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C428">
@@ -6085,7 +6084,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C436">
@@ -6137,7 +6136,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C440">
@@ -6241,7 +6240,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C448">
@@ -6293,7 +6292,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C452">
@@ -6319,7 +6318,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C454">
@@ -6345,7 +6344,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C456">
@@ -6371,7 +6370,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C458">
@@ -6397,7 +6396,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C460">
@@ -6462,7 +6461,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C465">
@@ -6521,7 +6520,7 @@
         <v>223</v>
       </c>
       <c r="D469">
-        <v>0.0009985134239607401</v>
+        <v>0.0009985134239607399</v>
       </c>
     </row>
     <row r="470">
@@ -6545,7 +6544,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C471">
@@ -6584,7 +6583,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C474">
@@ -6597,7 +6596,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C475">
@@ -6649,7 +6648,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C479">
@@ -6662,7 +6661,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C480">
@@ -6688,7 +6687,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C482">
@@ -6701,7 +6700,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C483">
@@ -6740,7 +6739,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C486">
@@ -6753,7 +6752,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C487">
@@ -6766,7 +6765,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C488">
@@ -6779,7 +6778,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C489">
@@ -6844,7 +6843,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C494">
@@ -6857,7 +6856,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C495">
@@ -6909,7 +6908,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C499">
@@ -6922,7 +6921,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C500">
@@ -7000,7 +6999,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C506">
@@ -7013,7 +7012,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C507">
@@ -7033,13 +7032,13 @@
         <v>22</v>
       </c>
       <c r="D508">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C509">
@@ -7078,7 +7077,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C512">
@@ -7117,7 +7116,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C515">
@@ -7202,7 +7201,7 @@
         <v>205</v>
       </c>
       <c r="D521">
-        <v>0.0009179159278562857</v>
+        <v>0.0009179159278562856</v>
       </c>
     </row>
     <row r="522">
@@ -7286,7 +7285,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C528">
@@ -7312,7 +7311,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C530">
@@ -7338,7 +7337,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C532">
@@ -7364,7 +7363,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C534">
@@ -7416,7 +7415,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C538">
@@ -7429,7 +7428,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C539">
@@ -7590,7 +7589,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C551">
@@ -7681,7 +7680,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C558">
@@ -7694,7 +7693,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C559">
@@ -7772,7 +7771,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C565">
@@ -7850,7 +7849,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C571">
@@ -7902,7 +7901,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C575">
@@ -7941,7 +7940,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C578">
@@ -8032,7 +8031,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C585">
@@ -8045,7 +8044,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C586">
@@ -8058,7 +8057,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C587">
@@ -8071,7 +8070,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C588">
@@ -8084,7 +8083,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C589">
@@ -8110,7 +8109,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C591">
@@ -8123,7 +8122,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C592">
@@ -8136,7 +8135,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C593">
@@ -8175,7 +8174,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C596">
@@ -8253,7 +8252,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C602">
@@ -8266,7 +8265,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C603">
@@ -8318,7 +8317,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C607">
@@ -8344,7 +8343,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C609">
@@ -8357,7 +8356,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C610">
@@ -8396,7 +8395,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C613">
@@ -8513,7 +8512,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C622">
@@ -8526,7 +8525,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C623">
@@ -8539,7 +8538,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C624">
@@ -8591,7 +8590,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C628">
@@ -8604,7 +8603,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C629">
@@ -8674,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C634">
@@ -8687,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C635">
@@ -8752,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C640">
@@ -8791,7 +8790,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C643">
@@ -8817,7 +8816,7 @@
     <row r="645">
       <c r="B645" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C645">
@@ -8895,7 +8894,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C651">
@@ -8986,7 +8985,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C658">
@@ -8999,7 +8998,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C659">
@@ -9116,7 +9115,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C668">
@@ -9207,7 +9206,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C675">
@@ -9220,7 +9219,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C676">
@@ -9233,7 +9232,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C677">
@@ -9266,7 +9265,7 @@
         <v>22</v>
       </c>
       <c r="D679">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="680">
@@ -9285,7 +9284,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C681">
@@ -9363,7 +9362,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C687">
@@ -9376,7 +9375,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C688">
@@ -9480,7 +9479,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C696">
@@ -9545,7 +9544,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C701">
@@ -9558,7 +9557,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C702">
@@ -9584,7 +9583,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C704">
@@ -9597,7 +9596,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C705">
@@ -9636,7 +9635,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C708">
@@ -9662,7 +9661,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C710">
@@ -9675,7 +9674,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C711">
@@ -9688,7 +9687,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C712">
@@ -9701,7 +9700,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C713">
@@ -9740,7 +9739,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C716">
@@ -9753,7 +9752,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C717">
@@ -9792,7 +9791,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C720">
@@ -9844,7 +9843,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C724">
@@ -9857,7 +9856,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C725">
@@ -9896,7 +9895,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C728">
@@ -9909,7 +9908,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C729">
@@ -9955,7 +9954,7 @@
         <v>22</v>
       </c>
       <c r="D732">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="733">
@@ -10065,7 +10064,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C741">
@@ -10078,7 +10077,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C742">
@@ -10091,7 +10090,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C743">
@@ -10104,7 +10103,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C744">
@@ -10169,7 +10168,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C749">
@@ -10182,7 +10181,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C750">
@@ -10221,7 +10220,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C753">
@@ -10234,7 +10233,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C754">
@@ -10247,7 +10246,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C755">
@@ -10590,7 +10589,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C781">
@@ -10616,7 +10615,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C783">
@@ -11487,7 +11486,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C850">
@@ -11741,7 +11740,7 @@
         <v>22</v>
       </c>
       <c r="D869">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="870">
@@ -11830,7 +11829,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C876">
@@ -11986,7 +11985,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C888">
@@ -12064,7 +12063,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C894">
@@ -12077,7 +12076,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C895">
@@ -12181,7 +12180,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C903">
@@ -12238,7 +12237,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C907">
@@ -12251,7 +12250,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C908">
@@ -12290,7 +12289,7 @@
     <row r="911">
       <c r="B911" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C911">
@@ -12381,7 +12380,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C918">
@@ -12414,7 +12413,7 @@
         <v>22</v>
       </c>
       <c r="D920">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="921">
@@ -12620,7 +12619,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C936">
@@ -12679,7 +12678,7 @@
         <v>205</v>
       </c>
       <c r="D940">
-        <v>0.0009179159278562857</v>
+        <v>0.0009179159278562856</v>
       </c>
     </row>
     <row r="941">
@@ -12854,7 +12853,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C954">
@@ -12945,7 +12944,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C961">
@@ -13062,7 +13061,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C970">
@@ -13171,7 +13170,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C978">
@@ -13223,7 +13222,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C982">
@@ -13288,7 +13287,7 @@
     <row r="987">
       <c r="B987" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C987">
@@ -13301,7 +13300,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C988">
@@ -13340,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C991">
@@ -13379,7 +13378,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C994">
@@ -13405,7 +13404,7 @@
     <row r="996">
       <c r="B996" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C996">
@@ -13418,7 +13417,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C997">
@@ -13444,7 +13443,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C999">
@@ -13457,7 +13456,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C1000">
@@ -13470,7 +13469,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C1001">
@@ -13496,7 +13495,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C1003">
@@ -13509,7 +13508,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C1004">
@@ -13522,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C1005">
@@ -13535,7 +13534,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C1006">
@@ -13561,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C1008">
@@ -13574,7 +13573,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C1009">
@@ -13717,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C1020">
@@ -13730,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C1021">
@@ -13756,7 +13755,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1023">
@@ -13782,7 +13781,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1025">
@@ -13795,7 +13794,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1026">
@@ -13847,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1030">
@@ -13873,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1032">
@@ -13886,7 +13885,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1033">
@@ -13899,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1034">
@@ -13925,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C1036">
@@ -13938,7 +13937,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1037">
@@ -14159,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1054">
@@ -14185,7 +14184,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1056">
@@ -14393,7 +14392,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1072">
@@ -14458,7 +14457,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1077">
@@ -14744,7 +14743,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1099">
@@ -14861,7 +14860,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1108">
@@ -14978,7 +14977,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1117">
@@ -14991,7 +14990,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1118">
@@ -15004,7 +15003,7 @@
     <row r="1119">
       <c r="B1119" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1119">
@@ -15394,7 +15393,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1149">
@@ -15485,7 +15484,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1156">
@@ -15641,7 +15640,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1168">
@@ -15667,7 +15666,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1170">
@@ -15927,7 +15926,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1190">
@@ -15992,7 +15991,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1195">
@@ -16278,7 +16277,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1217">
@@ -16291,7 +16290,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1218">
@@ -16395,7 +16394,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1226">
@@ -16590,7 +16589,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1241">
@@ -16642,7 +16641,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1245">
@@ -16694,7 +16693,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1249">
@@ -16707,7 +16706,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1250">
@@ -16720,7 +16719,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1251">
@@ -16941,7 +16940,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1268">
@@ -17617,7 +17616,7 @@
     <row r="1320">
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1320">
@@ -17877,7 +17876,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1340">
@@ -17890,7 +17889,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1341">
@@ -17916,7 +17915,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1343">
@@ -17929,7 +17928,7 @@
     <row r="1344">
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1344">
@@ -17942,7 +17941,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1345">
@@ -17955,7 +17954,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1346">
@@ -17994,7 +17993,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1349">
@@ -18020,7 +18019,7 @@
     <row r="1351">
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1351">
@@ -18033,7 +18032,7 @@
     <row r="1352">
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1352">
@@ -18072,7 +18071,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1355">
@@ -18085,7 +18084,7 @@
     <row r="1356">
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1356">
@@ -18098,7 +18097,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1357">
@@ -18111,7 +18110,7 @@
     <row r="1358">
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1358">
@@ -18124,7 +18123,7 @@
     <row r="1359">
       <c r="B1359" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1359">
@@ -18163,7 +18162,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1362">
@@ -18176,7 +18175,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1363">
@@ -18189,7 +18188,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Villa Tejúpam de la Unión</t>
+          <t>Villa Tejúpam De La Unión</t>
         </is>
       </c>
       <c r="C1364">
@@ -18254,7 +18253,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1369">
@@ -18584,7 +18583,7 @@
     <row r="1394">
       <c r="B1394" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1394">
@@ -18649,7 +18648,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1399">
@@ -18779,7 +18778,7 @@
     <row r="1409">
       <c r="B1409" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1409">
@@ -18922,7 +18921,7 @@
     <row r="1420">
       <c r="B1420" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1420">
@@ -18961,7 +18960,7 @@
     <row r="1423">
       <c r="B1423" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1423">
@@ -18974,7 +18973,7 @@
     <row r="1424">
       <c r="B1424" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1424">
@@ -19182,7 +19181,7 @@
     <row r="1440">
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1440">
@@ -19195,7 +19194,7 @@
     <row r="1441">
       <c r="B1441" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1441">
@@ -19260,7 +19259,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1446">
@@ -19286,7 +19285,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1448">
@@ -19325,7 +19324,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1451">
@@ -19436,13 +19435,13 @@
         <v>22</v>
       </c>
       <c r="D1459">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1460">
@@ -19455,7 +19454,7 @@
     <row r="1461">
       <c r="B1461" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1461">
@@ -19624,14 +19623,14 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1474">
         <v>22</v>
       </c>
       <c r="D1474">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="1475">
@@ -19962,7 +19961,7 @@
     <row r="1500">
       <c r="B1500" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1500">
@@ -20014,7 +20013,7 @@
     <row r="1504">
       <c r="B1504" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1504">
@@ -20027,7 +20026,7 @@
     <row r="1505">
       <c r="B1505" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1505">
@@ -20144,7 +20143,7 @@
     <row r="1514">
       <c r="B1514" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1514">
@@ -20248,7 +20247,7 @@
     <row r="1522">
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1522">
@@ -20261,7 +20260,7 @@
     <row r="1523">
       <c r="B1523" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1523">
@@ -20339,7 +20338,7 @@
     <row r="1529">
       <c r="B1529" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1529">
@@ -20365,7 +20364,7 @@
     <row r="1531">
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1531">
@@ -20378,7 +20377,7 @@
     <row r="1532">
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1532">
@@ -20443,7 +20442,7 @@
     <row r="1537">
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1537">
@@ -20599,7 +20598,7 @@
     <row r="1549">
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1549">
@@ -20651,7 +20650,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1553">
@@ -20729,7 +20728,7 @@
     <row r="1559">
       <c r="B1559" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1559">
@@ -20916,7 +20915,7 @@
       </c>
       <c r="B1573" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1573">
@@ -20942,7 +20941,7 @@
     <row r="1575">
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1575">
@@ -21020,7 +21019,7 @@
     <row r="1581">
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1581">
@@ -21033,7 +21032,7 @@
     <row r="1582">
       <c r="B1582" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1582">
@@ -21066,13 +21065,13 @@
         <v>22</v>
       </c>
       <c r="D1584">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="1585">
       <c r="B1585" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1585">
@@ -21111,7 +21110,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1588">
@@ -21297,13 +21296,13 @@
         <v>212</v>
       </c>
       <c r="D1601">
-        <v>0.0009492593985635735</v>
+        <v>0.0009492593985635736</v>
       </c>
     </row>
     <row r="1602">
       <c r="B1602" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1602">
@@ -21316,7 +21315,7 @@
     <row r="1603">
       <c r="B1603" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1603">
@@ -21381,7 +21380,7 @@
     <row r="1608">
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1608">
@@ -21407,7 +21406,7 @@
     <row r="1610">
       <c r="B1610" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1610">
@@ -21550,7 +21549,7 @@
     <row r="1621">
       <c r="B1621" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1621">
@@ -21628,7 +21627,7 @@
     <row r="1627">
       <c r="B1627" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1627">
@@ -21706,7 +21705,7 @@
     <row r="1633">
       <c r="B1633" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1633">
@@ -21732,7 +21731,7 @@
     <row r="1635">
       <c r="B1635" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1635">
@@ -21830,13 +21829,13 @@
         <v>22</v>
       </c>
       <c r="D1642">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1643">
@@ -21888,7 +21887,7 @@
     <row r="1647">
       <c r="B1647" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1647">
@@ -21901,7 +21900,7 @@
     <row r="1648">
       <c r="B1648" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1648">
@@ -21914,7 +21913,7 @@
     <row r="1649">
       <c r="B1649" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1649">
@@ -21927,7 +21926,7 @@
     <row r="1650">
       <c r="B1650" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1650">
@@ -21940,7 +21939,7 @@
     <row r="1651">
       <c r="B1651" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1651">
@@ -21953,7 +21952,7 @@
     <row r="1652">
       <c r="B1652" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1652">
@@ -22535,7 +22534,7 @@
     <row r="1696">
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1696">
@@ -22652,7 +22651,7 @@
     <row r="1705">
       <c r="B1705" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1705">
@@ -22839,7 +22838,7 @@
     <row r="1719">
       <c r="B1719" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1719">
@@ -23429,7 +23428,7 @@
     <row r="1764">
       <c r="B1764" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1764">
@@ -23538,7 +23537,7 @@
       </c>
       <c r="B1772" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1772">
@@ -23564,7 +23563,7 @@
     <row r="1774">
       <c r="B1774" t="inlineStr">
         <is>
-          <t>Amaxac de Guerrero</t>
+          <t>Amaxac De Guerrero</t>
         </is>
       </c>
       <c r="C1774">
@@ -23577,7 +23576,7 @@
     <row r="1775">
       <c r="B1775" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1775">
@@ -23642,7 +23641,7 @@
     <row r="1780">
       <c r="B1780" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1780">
@@ -23720,7 +23719,7 @@
     <row r="1786">
       <c r="B1786" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1786">
@@ -23759,7 +23758,7 @@
     <row r="1789">
       <c r="B1789" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1789">
@@ -23798,7 +23797,7 @@
     <row r="1792">
       <c r="B1792" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1792">
@@ -23824,7 +23823,7 @@
     <row r="1794">
       <c r="B1794" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1794">
@@ -23889,7 +23888,7 @@
     <row r="1799">
       <c r="B1799" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1799">
@@ -23928,7 +23927,7 @@
     <row r="1802">
       <c r="B1802" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1802">
@@ -24084,7 +24083,7 @@
     <row r="1814">
       <c r="B1814" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1814">
@@ -24219,7 +24218,7 @@
     <row r="1824">
       <c r="B1824" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1824">
@@ -24271,7 +24270,7 @@
     <row r="1828">
       <c r="B1828" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1828">
@@ -24414,7 +24413,7 @@
     <row r="1839">
       <c r="B1839" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1839">
@@ -24479,7 +24478,7 @@
     <row r="1844">
       <c r="B1844" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1844">
@@ -24505,7 +24504,7 @@
     <row r="1846">
       <c r="B1846" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1846">
@@ -24609,7 +24608,7 @@
     <row r="1854">
       <c r="B1854" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1854">
@@ -24791,7 +24790,7 @@
     <row r="1868">
       <c r="B1868" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1868">
@@ -24804,7 +24803,7 @@
     <row r="1869">
       <c r="B1869" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1869">
@@ -25012,7 +25011,7 @@
     <row r="1885">
       <c r="B1885" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1885">
@@ -25025,7 +25024,7 @@
     <row r="1886">
       <c r="B1886" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1886">
@@ -25038,7 +25037,7 @@
     <row r="1887">
       <c r="B1887" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1887">
@@ -25090,7 +25089,7 @@
     <row r="1891">
       <c r="B1891" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1891">
@@ -25103,7 +25102,7 @@
     <row r="1892">
       <c r="B1892" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1892">
@@ -25116,7 +25115,7 @@
     <row r="1893">
       <c r="B1893" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1893">
@@ -25129,7 +25128,7 @@
     <row r="1894">
       <c r="B1894" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1894">
@@ -25201,7 +25200,7 @@
         <v>22</v>
       </c>
       <c r="D1899">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="1900">
@@ -25272,7 +25271,7 @@
     <row r="1905">
       <c r="B1905" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1905">
@@ -25311,7 +25310,7 @@
     <row r="1908">
       <c r="B1908" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1908">
@@ -25350,7 +25349,7 @@
     <row r="1911">
       <c r="B1911" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1911">
@@ -25363,7 +25362,7 @@
     <row r="1912">
       <c r="B1912" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1912">
@@ -25428,7 +25427,7 @@
     <row r="1917">
       <c r="B1917" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1917">
@@ -25467,7 +25466,7 @@
     <row r="1920">
       <c r="B1920" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1920">
@@ -25519,7 +25518,7 @@
     <row r="1924">
       <c r="B1924" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1924">
@@ -25545,7 +25544,7 @@
     <row r="1926">
       <c r="B1926" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1926">
@@ -25688,7 +25687,7 @@
     <row r="1937">
       <c r="B1937" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1937">
@@ -25740,7 +25739,7 @@
     <row r="1941">
       <c r="B1941" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1941">
@@ -25753,7 +25752,7 @@
     <row r="1942">
       <c r="B1942" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1942">
@@ -25786,7 +25785,7 @@
         <v>22</v>
       </c>
       <c r="D1944">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="1945">
@@ -25805,7 +25804,7 @@
     <row r="1946">
       <c r="B1946" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1946">
@@ -25935,7 +25934,7 @@
     <row r="1956">
       <c r="B1956" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1956">
@@ -25987,7 +25986,7 @@
     <row r="1960">
       <c r="B1960" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1960">
@@ -26091,7 +26090,7 @@
     <row r="1968">
       <c r="B1968" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1968">
@@ -26390,7 +26389,7 @@
     <row r="1991">
       <c r="B1991" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1991">
@@ -26572,7 +26571,7 @@
     <row r="2005">
       <c r="B2005" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2005">
@@ -26618,7 +26617,7 @@
         <v>212</v>
       </c>
       <c r="D2008">
-        <v>0.0009492593985635735</v>
+        <v>0.0009492593985635736</v>
       </c>
     </row>
     <row r="2009">
@@ -26709,13 +26708,13 @@
         <v>22</v>
       </c>
       <c r="D2015">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="2016">
       <c r="B2016" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2016">
@@ -26728,7 +26727,7 @@
     <row r="2017">
       <c r="B2017" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2017">
@@ -26876,7 +26875,7 @@
     <row r="2028">
       <c r="B2028" t="inlineStr">
         <is>
-          <t>Dzilam de Bravo</t>
+          <t>Dzilam De Bravo</t>
         </is>
       </c>
       <c r="C2028">
@@ -27362,7 +27361,7 @@
     <row r="2065">
       <c r="B2065" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2065">
@@ -27382,13 +27381,13 @@
         <v>207</v>
       </c>
       <c r="D2066">
-        <v>0.0009268712052012251</v>
+        <v>0.0009268712052012252</v>
       </c>
     </row>
     <row r="2067">
       <c r="B2067" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2067">
@@ -27414,7 +27413,7 @@
     <row r="2069">
       <c r="B2069" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2069">
@@ -27557,7 +27556,7 @@
     <row r="2080">
       <c r="B2080" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2080">
@@ -27648,7 +27647,7 @@
     <row r="2087">
       <c r="B2087" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2087">
@@ -27713,20 +27712,20 @@
     <row r="2092">
       <c r="B2092" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2092">
         <v>22</v>
       </c>
       <c r="D2092">
-        <v>9.850805079433309E-05</v>
+        <v>9.850805079433308E-05</v>
       </c>
     </row>
     <row r="2093">
       <c r="B2093" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2093">
@@ -27739,7 +27738,7 @@
     <row r="2094">
       <c r="B2094" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2094">
@@ -27882,7 +27881,7 @@
     <row r="2105">
       <c r="B2105" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2105">
@@ -27895,7 +27894,7 @@
     <row r="2106">
       <c r="B2106" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2106">
@@ -27921,7 +27920,7 @@
     <row r="2108">
       <c r="B2108" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2108">
@@ -27960,7 +27959,7 @@
     <row r="2111">
       <c r="B2111" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2111">
@@ -28059,41 +28058,6 @@
       </c>
       <c r="D2118">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2120">
-      <c r="A2120" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="2121">
-      <c r="A2121" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2122">
-      <c r="A2122" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2123">
-      <c r="A2123" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2124">
-      <c r="A2124" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>
